--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y410"/>
+  <dimension ref="A1:Y411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24344,7 +24344,7 @@
       </c>
       <c r="R409" s="2" t="inlineStr"/>
     </row>
-    <row r="410">
+    <row r="410" ht="15" customHeight="1">
       <c r="A410" t="inlineStr">
         <is>
           <t>A 39477-2023</t>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24400,6 +24400,63 @@
         <v>0</v>
       </c>
       <c r="R410" s="2" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>A 43037-2023</t>
+        </is>
+      </c>
+      <c r="B411" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C411" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>VARBERG</t>
+        </is>
+      </c>
+      <c r="G411" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N411" t="n">
+        <v>0</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R411" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -626,27 +626,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 37951-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 37951-2020.xlsx", "A 37951-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 37951-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 37951-2020.png", "A 37951-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 37951-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 37951-2020.docx", "A 37951-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 37951-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 37951-2020.docx", "A 37951-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 37951-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 37951-2020.docx", "A 37951-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 37951-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 37951-2020.docx", "A 37951-2020")</f>
         <v/>
       </c>
     </row>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -713,27 +713,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 35037-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 35037-2021.xlsx", "A 35037-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 35037-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 35037-2021.png", "A 35037-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 35037-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 35037-2021.docx", "A 35037-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 35037-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 35037-2021.docx", "A 35037-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 35037-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 35037-2021.docx", "A 35037-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 35037-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 35037-2021.docx", "A 35037-2021")</f>
         <v/>
       </c>
     </row>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,27 +799,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 13512-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 13512-2019.xlsx", "A 13512-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 13512-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 13512-2019.png", "A 13512-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 13512-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 13512-2019.docx", "A 13512-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 13512-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 13512-2019.docx", "A 13512-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 13512-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 13512-2019.docx", "A 13512-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 13512-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 13512-2019.docx", "A 13512-2019")</f>
         <v/>
       </c>
     </row>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,27 +885,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 61149-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 61149-2019.xlsx", "A 61149-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 61149-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 61149-2019.png", "A 61149-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 61149-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 61149-2019.docx", "A 61149-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 61149-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 61149-2019.docx", "A 61149-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 61149-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 61149-2019.docx", "A 61149-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 61149-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 61149-2019.docx", "A 61149-2019")</f>
         <v/>
       </c>
     </row>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,27 +971,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 31030-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 31030-2022.xlsx", "A 31030-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 31030-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 31030-2022.png", "A 31030-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 31030-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 31030-2022.docx", "A 31030-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 31030-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 31030-2022.docx", "A 31030-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 31030-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 31030-2022.docx", "A 31030-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 31030-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 31030-2022.docx", "A 31030-2022")</f>
         <v/>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1056,27 +1056,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 68879-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 68879-2018.xlsx", "A 68879-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 68879-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 68879-2018.png", "A 68879-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 68879-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 68879-2018.docx", "A 68879-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 68879-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 68879-2018.docx", "A 68879-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 68879-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 68879-2018.docx", "A 68879-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 68879-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 68879-2018.docx", "A 68879-2018")</f>
         <v/>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1141,27 +1141,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 10630-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 10630-2020.xlsx", "A 10630-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 10630-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 10630-2020.png", "A 10630-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 10630-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 10630-2020.docx", "A 10630-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 10630-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 10630-2020.docx", "A 10630-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 10630-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 10630-2020.docx", "A 10630-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 10630-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 10630-2020.docx", "A 10630-2020")</f>
         <v/>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1226,27 +1226,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 61355-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 61355-2020.xlsx", "A 61355-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 61355-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 61355-2020.png", "A 61355-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 61355-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 61355-2020.docx", "A 61355-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 61355-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 61355-2020.docx", "A 61355-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 61355-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 61355-2020.docx", "A 61355-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 61355-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 61355-2020.docx", "A 61355-2020")</f>
         <v/>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1311,27 +1311,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 69344-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 69344-2020.xlsx", "A 69344-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 69344-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 69344-2020.png", "A 69344-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 69344-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 69344-2020.docx", "A 69344-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 69344-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 69344-2020.docx", "A 69344-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 69344-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 69344-2020.docx", "A 69344-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 69344-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 69344-2020.docx", "A 69344-2020")</f>
         <v/>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1396,27 +1396,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 30534-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 30534-2021.xlsx", "A 30534-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 30534-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 30534-2021.png", "A 30534-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 30534-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 30534-2021.docx", "A 30534-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 30534-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 30534-2021.docx", "A 30534-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 30534-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 30534-2021.docx", "A 30534-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 30534-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 30534-2021.docx", "A 30534-2021")</f>
         <v/>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1481,27 +1481,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 43362-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 43362-2022.xlsx", "A 43362-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 43362-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 43362-2022.png", "A 43362-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 43362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 43362-2022.docx", "A 43362-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 43362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 43362-2022.docx", "A 43362-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 43362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 43362-2022.docx", "A 43362-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 43362-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 43362-2022.docx", "A 43362-2022")</f>
         <v/>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1566,27 +1566,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 49551-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 49551-2022.xlsx", "A 49551-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 49551-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 49551-2022.png", "A 49551-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 49551-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 49551-2022.docx", "A 49551-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 49551-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 49551-2022.docx", "A 49551-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 49551-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 49551-2022.docx", "A 49551-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 49551-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 49551-2022.docx", "A 49551-2022")</f>
         <v/>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1651,27 +1651,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 57564-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 57564-2022.xlsx", "A 57564-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 57564-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 57564-2022.png", "A 57564-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 57564-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 57564-2022.docx", "A 57564-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 57564-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 57564-2022.docx", "A 57564-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 57564-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 57564-2022.docx", "A 57564-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 57564-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 57564-2022.docx", "A 57564-2022")</f>
         <v/>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1736,27 +1736,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 23050-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 23050-2023.xlsx", "A 23050-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 23050-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 23050-2023.png", "A 23050-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 23050-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 23050-2023.docx", "A 23050-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 23050-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 23050-2023.docx", "A 23050-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 23050-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 23050-2023.docx", "A 23050-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 23050-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 23050-2023.docx", "A 23050-2023")</f>
         <v/>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1821,27 +1821,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 34831-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 34831-2023.xlsx", "A 34831-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 34831-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 34831-2023.png", "A 34831-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 34831-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 34831-2023.docx", "A 34831-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 34831-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 34831-2023.docx", "A 34831-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 34831-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 34831-2023.docx", "A 34831-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 34831-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 34831-2023.docx", "A 34831-2023")</f>
         <v/>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1906,27 +1906,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 34833-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/artfynd/A 34833-2023.xlsx", "A 34833-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 34833-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/kartor/A 34833-2023.png", "A 34833-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 34833-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomål/A 34833-2023.docx", "A 34833-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 34833-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/klagomålsmail/A 34833-2023.docx", "A 34833-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 34833-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsyn/A 34833-2023.docx", "A 34833-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 34833-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARBERG/tillsynsmail/A 34833-2023.docx", "A 34833-2023")</f>
         <v/>
       </c>
     </row>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y411"/>
+  <dimension ref="A1:Y416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
       </c>
       <c r="R410" s="2" t="inlineStr"/>
     </row>
-    <row r="411">
+    <row r="411" ht="15" customHeight="1">
       <c r="A411" t="inlineStr">
         <is>
           <t>A 43037-2023</t>
@@ -24411,7 +24411,7 @@
         <v>45182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24457,6 +24457,291 @@
         <v>0</v>
       </c>
       <c r="R411" s="2" t="inlineStr"/>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>A 46026-2023</t>
+        </is>
+      </c>
+      <c r="B412" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C412" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>VARBERG</t>
+        </is>
+      </c>
+      <c r="G412" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N412" t="n">
+        <v>0</v>
+      </c>
+      <c r="O412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R412" s="2" t="inlineStr"/>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>A 46236-2023</t>
+        </is>
+      </c>
+      <c r="B413" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C413" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>VARBERG</t>
+        </is>
+      </c>
+      <c r="G413" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N413" t="n">
+        <v>0</v>
+      </c>
+      <c r="O413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R413" s="2" t="inlineStr"/>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>A 46395-2023</t>
+        </is>
+      </c>
+      <c r="B414" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C414" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>VARBERG</t>
+        </is>
+      </c>
+      <c r="G414" t="n">
+        <v>2</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N414" t="n">
+        <v>0</v>
+      </c>
+      <c r="O414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R414" s="2" t="inlineStr"/>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>A 46421-2023</t>
+        </is>
+      </c>
+      <c r="B415" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C415" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>VARBERG</t>
+        </is>
+      </c>
+      <c r="G415" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N415" t="n">
+        <v>0</v>
+      </c>
+      <c r="O415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R415" s="2" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>A 46877-2023</t>
+        </is>
+      </c>
+      <c r="B416" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="C416" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>HALLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>VARBERG</t>
+        </is>
+      </c>
+      <c r="G416" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N416" t="n">
+        <v>0</v>
+      </c>
+      <c r="O416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R416" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45196</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>45196</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>45197</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>45197</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>45200</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45196</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>45196</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>45197</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>45197</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>45200</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45196</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>45196</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>45197</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>45197</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>45200</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45196</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>45196</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>45197</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>45197</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>45200</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt VARBERG.xlsx
+++ b/Översikt VARBERG.xlsx
@@ -572,7 +572,7 @@
         <v>44057</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>44383</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43530</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43782</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>44768</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43445</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44155</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>44193</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44364</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44834</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44862</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45075</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45141</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,7 +1855,7 @@
         <v>45141</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>43361</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43381</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43395</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43407</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43434</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43438</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43439</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43445</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43447</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43451</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43451</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43451</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43452</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43452</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43453</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>43453</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>43455</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>43462</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>43468</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         <v>43468</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         <v>43468</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>43469</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>43472</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>43472</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         <v>43472</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>43476</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>43478</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43481</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43483</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43483</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43485</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43486</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43486</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43495</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>43495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>43495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>43509</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>43509</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43515</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43515</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43515</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43517</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43524</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43525</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43528</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43530</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>43530</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>43543</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43543</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43545</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43546</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43553</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43558</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43558</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43558</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43570</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43578</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43578</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43584</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43598</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43599</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43599</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43599</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43601</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43601</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>43613</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>43628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>43642</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>43697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>43697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>43698</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43707</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>43713</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>43718</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>43718</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>43724</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>43728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>43731</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>43734</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>43742</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>43742</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>43742</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43747</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>43747</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>43747</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>43748</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>43752</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>43762</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>43763</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43766</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43777</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43808</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43810</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43811</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>43818</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>43818</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>43844</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>43846</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>43854</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>43854</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>43854</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>43861</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43864</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43865</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>43868</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43873</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>43879</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>43887</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>43887</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>43887</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>43894</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>43894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>43894</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>43894</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>43896</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>43900</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>43908</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>43920</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9598,7 +9598,7 @@
         <v>43920</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>43921</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9722,7 +9722,7 @@
         <v>43922</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9779,7 +9779,7 @@
         <v>43942</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43948</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>43948</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>43949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>43964</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43964</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         <v>43965</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>43971</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10235,7 +10235,7 @@
         <v>43979</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43980</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10349,7 +10349,7 @@
         <v>43990</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>43992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>44015</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10520,7 +10520,7 @@
         <v>44015</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44018</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44025</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44056</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>44063</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>44063</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44067</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>44098</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>44102</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>44103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>44109</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>44113</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>44113</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>44116</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         <v>44123</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         <v>44124</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         <v>44138</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44140</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>44140</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>44140</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>44140</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>44145</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>44147</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>44147</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         <v>44153</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>44166</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44169</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44173</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>44173</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12245,7 +12245,7 @@
         <v>44179</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12302,7 +12302,7 @@
         <v>44184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         <v>44187</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12416,7 +12416,7 @@
         <v>44207</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12473,7 +12473,7 @@
         <v>44210</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44216</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44221</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>44222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12701,7 +12701,7 @@
         <v>44223</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12758,7 +12758,7 @@
         <v>44225</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>44225</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44228</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>44229</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44231</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44231</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44235</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44243</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44250</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44264</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44266</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44279</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44280</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44280</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44287</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44302</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>44302</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>44307</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44307</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>44308</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44314</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44314</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44315</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44320</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44344</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>44345</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>44349</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>44361</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>44365</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14592,7 +14592,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14649,7 +14649,7 @@
         <v>44370</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44376</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>44376</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>44376</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>44376</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>44377</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15058,7 +15058,7 @@
         <v>44383</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         <v>44386</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44398</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44414</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>44421</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44425</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>44441</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44457</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>44466</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>44470</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>44470</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>44473</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         <v>44480</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         <v>44481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44493</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         <v>44493</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         <v>44504</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>44509</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44511</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>44533</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>44581</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>44588</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16426,7 +16426,7 @@
         <v>44596</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16483,7 +16483,7 @@
         <v>44620</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>44630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>44638</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16654,7 +16654,7 @@
         <v>44649</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>44649</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>44649</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44649</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44657</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44657</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44657</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44678</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>44678</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44691</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44711</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44719</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44722</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44722</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44727</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44740</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>44762</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>44764</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>44767</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44767</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>44767</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>44774</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44797</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18022,7 +18022,7 @@
         <v>44797</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>44811</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>44811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>44812</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>44818</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>44818</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>44824</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>44828</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>44831</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>44831</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>44831</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44832</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         <v>44834</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>44834</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
         <v>44834</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18877,7 +18877,7 @@
         <v>44834</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18934,7 +18934,7 @@
         <v>44834</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18991,7 +18991,7 @@
         <v>44837</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19048,7 +19048,7 @@
         <v>44839</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19105,7 +19105,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>44848</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44851</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>44860</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>44862</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44862</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>44867</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44867</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>44867</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>44868</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>44874</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>44874</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>44874</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>44876</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>44876</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44896</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44915</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>44918</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20131,7 +20131,7 @@
         <v>44926</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20188,7 +20188,7 @@
         <v>44949</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44950</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>44956</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20359,7 +20359,7 @@
         <v>44957</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>44958</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>44964</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>44964</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>44967</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>44974</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44980</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44980</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44981</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44983</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44985</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44985</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44987</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45007</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45007</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45007</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45008</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>45008</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45013</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>45013</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45013</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45014</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45029</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45039</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45048</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45048</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45054</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>45055</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>45055</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22017,7 +22017,7 @@
         <v>45055</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>45055</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22131,7 +22131,7 @@
         <v>45058</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22188,7 +22188,7 @@
         <v>45058</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22245,7 +22245,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45058</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22359,7 +22359,7 @@
         <v>45058</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22416,7 +22416,7 @@
         <v>45062</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22473,7 +22473,7 @@
         <v>45068</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>45070</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>45075</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22644,7 +22644,7 @@
         <v>45075</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22701,7 +22701,7 @@
         <v>45078</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>45078</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         <v>45085</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>45086</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -22929,7 +22929,7 @@
         <v>45088</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -22986,7 +22986,7 @@
         <v>45088</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23043,7 +23043,7 @@
         <v>45090</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23100,7 +23100,7 @@
         <v>45090</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>45092</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>45093</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>45093</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>45097</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45104</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>45104</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45106</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45113</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23670,7 +23670,7 @@
         <v>45113</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23727,7 +23727,7 @@
         <v>45113</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23784,7 +23784,7 @@
         <v>45125</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -23841,7 +23841,7 @@
         <v>45131</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -23898,7 +23898,7 @@
         <v>45131</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45140</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>45140</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>45140</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24126,7 +24126,7 @@
         <v>45140</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24183,7 +24183,7 @@
         <v>45155</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24240,7 +24240,7 @@
         <v>45159</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24297,7 +24297,7 @@
         <v>45159</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45166</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         <v>45182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24468,7 +24468,7 @@
         <v>45196</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         <v>45196</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24582,7 +24582,7 @@
         <v>45197</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>45197</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         <v>45200</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
